--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fgf17</t>
   </si>
   <si>
     <t>Fgfr3</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.42585690507128</v>
+        <v>1.430739666666667</v>
       </c>
       <c r="H2">
-        <v>1.42585690507128</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7530926191740721</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7530926191740722</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.440607762898742</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N2">
-        <v>0.440607762898742</v>
+        <v>7.85986</v>
       </c>
       <c r="O2">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P2">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q2">
-        <v>0.6282436211571806</v>
+        <v>3.748471158815556</v>
       </c>
       <c r="R2">
-        <v>0.6282436211571806</v>
+        <v>33.73624042933999</v>
       </c>
       <c r="S2">
-        <v>0.3035090278598324</v>
+        <v>0.4593887222058784</v>
       </c>
       <c r="T2">
-        <v>0.3035090278598324</v>
+        <v>0.4593887222058785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,309 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.42585690507128</v>
+        <v>1.430739666666667</v>
       </c>
       <c r="H3">
-        <v>1.42585690507128</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7530926191740721</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7530926191740722</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01110445141544</v>
+        <v>0.5698483333333333</v>
       </c>
       <c r="N3">
-        <v>1.01110445141544</v>
+        <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.6964909721401676</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="P3">
-        <v>0.6964909721401676</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="Q3">
-        <v>1.441690263799013</v>
+        <v>0.8153046144838887</v>
       </c>
       <c r="R3">
-        <v>1.441690263799013</v>
+        <v>7.337741530354998</v>
       </c>
       <c r="S3">
-        <v>0.6964909721401676</v>
+        <v>0.09991853456721218</v>
       </c>
       <c r="T3">
-        <v>0.6964909721401676</v>
+        <v>0.0999185345672122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.430739666666667</v>
+      </c>
+      <c r="H4">
+        <v>4.292218999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.7530926191740721</v>
+      </c>
+      <c r="J4">
+        <v>0.7530926191740722</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.105183</v>
+      </c>
+      <c r="N4">
+        <v>3.315549</v>
+      </c>
+      <c r="O4">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P4">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q4">
+        <v>1.581229157025666</v>
+      </c>
+      <c r="R4">
+        <v>14.231062413231</v>
+      </c>
+      <c r="S4">
+        <v>0.1937853624009815</v>
+      </c>
+      <c r="T4">
+        <v>0.1937853624009815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4690793333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.407238</v>
+      </c>
+      <c r="I5">
+        <v>0.2469073808259278</v>
+      </c>
+      <c r="J5">
+        <v>0.2469073808259279</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>2.619953333333334</v>
+      </c>
+      <c r="N5">
+        <v>7.85986</v>
+      </c>
+      <c r="O5">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="P5">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="Q5">
+        <v>1.228965962964444</v>
+      </c>
+      <c r="R5">
+        <v>11.06069366668</v>
+      </c>
+      <c r="S5">
+        <v>0.1506142316269408</v>
+      </c>
+      <c r="T5">
+        <v>0.1506142316269408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4690793333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.407238</v>
+      </c>
+      <c r="I6">
+        <v>0.2469073808259278</v>
+      </c>
+      <c r="J6">
+        <v>0.2469073808259279</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.709545</v>
+      </c>
+      <c r="O6">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="P6">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="Q6">
+        <v>0.2673040763011111</v>
+      </c>
+      <c r="R6">
+        <v>2.40573668671</v>
+      </c>
+      <c r="S6">
+        <v>0.03275908306339787</v>
+      </c>
+      <c r="T6">
+        <v>0.03275908306339788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4690793333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.407238</v>
+      </c>
+      <c r="I7">
+        <v>0.2469073808259278</v>
+      </c>
+      <c r="J7">
+        <v>0.2469073808259279</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.105183</v>
+      </c>
+      <c r="N7">
+        <v>3.315549</v>
+      </c>
+      <c r="O7">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P7">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q7">
+        <v>0.5184185048513333</v>
+      </c>
+      <c r="R7">
+        <v>4.665766543661999</v>
+      </c>
+      <c r="S7">
+        <v>0.06353406613558917</v>
+      </c>
+      <c r="T7">
+        <v>0.06353406613558918</v>
       </c>
     </row>
   </sheetData>
